--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Basketball.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Basketball.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="287">
   <si>
     <t>Year</t>
   </si>
@@ -45,10 +45,10 @@
     <t>Coaches Award</t>
   </si>
   <si>
-    <t>Captain</t>
+    <t>image URL</t>
   </si>
   <si>
-    <t>1972/1973</t>
+    <t>https://drive.google.com/file/d/17uZFSTz5OTM7_UL8n-xC0UEzyQ-pkrGa/view</t>
   </si>
   <si>
     <t>Outstanding Defensive</t>
@@ -60,13 +60,19 @@
     <t>Scholar Athlete</t>
   </si>
   <si>
+    <t>DEFAULT IMAGE</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YgMNxijuQ9KwICKUTyQ2ryipSbPn0AxY/view</t>
+  </si>
+  <si>
     <t>1986/1987</t>
   </si>
   <si>
     <t>1987/1988</t>
-  </si>
-  <si>
-    <t>Bill Chapman</t>
   </si>
   <si>
     <t>1988/1989</t>
@@ -91,9 +97,6 @@
   </si>
   <si>
     <t>1995/1996</t>
-  </si>
-  <si>
-    <t>1973/1974</t>
   </si>
   <si>
     <t>1996/1997</t>
@@ -135,28 +138,10 @@
     <t>2008/2009</t>
   </si>
   <si>
-    <t>1974/1975</t>
-  </si>
-  <si>
-    <t>Mike Cooley</t>
-  </si>
-  <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
     <t>2009/2010</t>
   </si>
   <si>
     <t>Nicole Gragnola</t>
-  </si>
-  <si>
-    <t>Randy Arrillaga</t>
-  </si>
-  <si>
-    <t>1975/1976</t>
-  </si>
-  <si>
-    <t>1978/1979</t>
   </si>
   <si>
     <t>Shriya Nagpal</t>
@@ -165,49 +150,19 @@
     <t>Hannah Johnson</t>
   </si>
   <si>
-    <t>Peter Smith</t>
-  </si>
-  <si>
-    <t>1976/1977</t>
-  </si>
-  <si>
     <t>Emily Baba</t>
   </si>
   <si>
     <t>Anna Schroeder</t>
   </si>
   <si>
-    <t>Mark Chamberlain</t>
-  </si>
-  <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>Tim Taylor</t>
-  </si>
-  <si>
     <t>Baylee Yates</t>
-  </si>
-  <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
-    <t>Marty Abate</t>
-  </si>
-  <si>
-    <t>Chris Felcyn</t>
   </si>
   <si>
     <t>2010/2011</t>
   </si>
   <si>
     <t>Hanna Johnson</t>
-  </si>
-  <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
-    <t>Tim Runyard</t>
   </si>
   <si>
     <t>Allison Buchanan</t>
@@ -222,12 +177,6 @@
     <t>Keerti Shukla</t>
   </si>
   <si>
-    <t>1982/1983</t>
-  </si>
-  <si>
-    <t>Mike Blitz</t>
-  </si>
-  <si>
     <t>2011/2012</t>
   </si>
   <si>
@@ -237,31 +186,16 @@
     <t>Puck de Roose</t>
   </si>
   <si>
-    <t>Gregg Mitchell</t>
-  </si>
-  <si>
     <t>Campbell Oreglia</t>
   </si>
   <si>
-    <t>1983/1984</t>
-  </si>
-  <si>
     <t>Taylor Jessen</t>
-  </si>
-  <si>
-    <t>John Trummel</t>
   </si>
   <si>
     <t>Talia Sisco</t>
   </si>
   <si>
     <t>2012/2013</t>
-  </si>
-  <si>
-    <t>1984/1985</t>
-  </si>
-  <si>
-    <t>Lee Hancock</t>
   </si>
   <si>
     <t>Neha Vellanki</t>
@@ -276,28 +210,28 @@
     <t>2013/2014</t>
   </si>
   <si>
-    <t>1985/1986</t>
-  </si>
-  <si>
     <t>Nicole Prowse</t>
   </si>
   <si>
     <t>Erin Norris</t>
   </si>
   <si>
-    <t>Scott Sutter</t>
-  </si>
-  <si>
     <t>Mikayla Davis</t>
-  </si>
-  <si>
-    <t>Mike Pon</t>
   </si>
   <si>
     <t>Tivoli Sisco</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/17I2JXPfdkXRoaa4bqUvNkYc7clMXSgdY/view</t>
+  </si>
+  <si>
     <t>Trishika Shetty</t>
+  </si>
+  <si>
+    <t>1972/1973</t>
+  </si>
+  <si>
+    <t>Bill Chapman</t>
   </si>
   <si>
     <t>Jennifer McAfee</t>
@@ -315,49 +249,34 @@
     <t>Samantha Davey</t>
   </si>
   <si>
-    <t>Jason Krumwiede</t>
-  </si>
-  <si>
     <t>2015/2016</t>
-  </si>
-  <si>
-    <t>Jamey Cutter</t>
   </si>
   <si>
     <t>Eleni Sirakis</t>
   </si>
   <si>
-    <t>John Devine</t>
+    <t>Natasha Ramakrishnan</t>
   </si>
   <si>
-    <t>Natasha Ramakrishnan</t>
+    <t>1973/1974</t>
   </si>
   <si>
     <t>Christine Raj</t>
   </si>
   <si>
-    <t>Mike Stypula</t>
+    <t>1974/1975</t>
   </si>
   <si>
-    <t>Kevin Kraft</t>
-  </si>
-  <si>
-    <t>Keith Tokar</t>
-  </si>
-  <si>
-    <t>Eric Duvall</t>
-  </si>
-  <si>
-    <t>Geoff Spencer</t>
+    <t>Mike Cooley</t>
   </si>
   <si>
     <t>2016/2017</t>
   </si>
   <si>
-    <t>Ted Macauley</t>
+    <t>2017/2018</t>
   </si>
   <si>
-    <t>2017/2018</t>
+    <t>Randy Arrillaga</t>
   </si>
   <si>
     <t>2018/2019</t>
@@ -373,6 +292,102 @@
   </si>
   <si>
     <t>Hanna Zahabi</t>
+  </si>
+  <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>Mark Chamberlain</t>
+  </si>
+  <si>
+    <t>Chris Felcyn</t>
+  </si>
+  <si>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Gregg Mitchell</t>
+  </si>
+  <si>
+    <t>Peter Smith</t>
+  </si>
+  <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>Tim Taylor</t>
+  </si>
+  <si>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>Marty Abate</t>
+  </si>
+  <si>
+    <t>Mike Stypula</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
+    <t>Tim Runyard</t>
+  </si>
+  <si>
+    <t>1982/1983</t>
+  </si>
+  <si>
+    <t>Mike Blitz</t>
+  </si>
+  <si>
+    <t>Ted Macauley</t>
+  </si>
+  <si>
+    <t>1983/1984</t>
+  </si>
+  <si>
+    <t>John Trummel</t>
+  </si>
+  <si>
+    <t>1984/1985</t>
+  </si>
+  <si>
+    <t>Lee Hancock</t>
+  </si>
+  <si>
+    <t>1985/1986</t>
+  </si>
+  <si>
+    <t>Scott Sutter</t>
+  </si>
+  <si>
+    <t>Mike Pon</t>
+  </si>
+  <si>
+    <t>Jason Krumwiede</t>
+  </si>
+  <si>
+    <t>Jamey Cutter</t>
+  </si>
+  <si>
+    <t>John Devine</t>
+  </si>
+  <si>
+    <t>Kevin Kraft</t>
+  </si>
+  <si>
+    <t>Keith Tokar</t>
+  </si>
+  <si>
+    <t>Eric Duvall</t>
+  </si>
+  <si>
+    <t>Geoff Spencer</t>
   </si>
   <si>
     <t>Brad Lambert</t>
@@ -405,9 +420,6 @@
     <t>Steve Sugimura</t>
   </si>
   <si>
-    <t>Mark Coleman</t>
-  </si>
-  <si>
     <t>Darius Tehranchi</t>
   </si>
   <si>
@@ -415,9 +427,6 @@
   </si>
   <si>
     <t>Dan Svalya</t>
-  </si>
-  <si>
-    <t>Jeremy Spencer</t>
   </si>
   <si>
     <t>Kyle Goni</t>
@@ -456,16 +465,13 @@
     <t>Robert Kim</t>
   </si>
   <si>
-    <t>Jeff Hilton</t>
-  </si>
-  <si>
     <t>Paul Zebb III</t>
   </si>
   <si>
-    <t>Daniel Ruby</t>
+    <t>Mark Coleman</t>
   </si>
   <si>
-    <t>Simran Sabharwal</t>
+    <t>Daniel Ruby</t>
   </si>
   <si>
     <t>Justin Zebb</t>
@@ -483,10 +489,10 @@
     <t>Lawrence Hui</t>
   </si>
   <si>
-    <t>Joe Yuan</t>
+    <t>Matt Ashburn</t>
   </si>
   <si>
-    <t>Matt Ashburn</t>
+    <t>Jeremy Spencer</t>
   </si>
   <si>
     <t>Greg Van Hoesen</t>
@@ -504,9 +510,6 @@
     <t>Chris Etterman</t>
   </si>
   <si>
-    <t>Tom Calderon</t>
-  </si>
-  <si>
     <t>Bo Nielson</t>
   </si>
   <si>
@@ -520,12 +523,6 @@
   </si>
   <si>
     <t>Kourosh Agahdel</t>
-  </si>
-  <si>
-    <t>Ryan Anderson</t>
-  </si>
-  <si>
-    <t>Jonathan Moon</t>
   </si>
   <si>
     <t>Keon Ghafouri</t>
@@ -552,16 +549,13 @@
     <t>Andy Johnson</t>
   </si>
   <si>
-    <t>Spencer Jamison</t>
-  </si>
-  <si>
     <t>David Wang</t>
   </si>
   <si>
     <t>Vincent Carstens</t>
   </si>
   <si>
-    <t>Bill Wallace</t>
+    <t>Jeff Hilton</t>
   </si>
   <si>
     <t>Steven Berman</t>
@@ -588,13 +582,16 @@
     <t>Brandon Pak</t>
   </si>
   <si>
-    <t>Frank Wallace</t>
+    <t>Simran Sabharwal</t>
   </si>
   <si>
     <t>Brian Kim</t>
   </si>
   <si>
     <t>Stevie Berman</t>
+  </si>
+  <si>
+    <t>Joe Yuan</t>
   </si>
   <si>
     <t>Alex Wang</t>
@@ -615,9 +612,6 @@
     <t>Thomas Alexander</t>
   </si>
   <si>
-    <t>Alex Lagemann</t>
-  </si>
-  <si>
     <t>Jojin Chun</t>
   </si>
   <si>
@@ -631,6 +625,9 @@
   </si>
   <si>
     <t>Woongjin Chun</t>
+  </si>
+  <si>
+    <t>Tom Calderon</t>
   </si>
   <si>
     <t>Jatin Mohanty</t>
@@ -666,6 +663,9 @@
     <t>2017-2018</t>
   </si>
   <si>
+    <t>Ryan Anderson</t>
+  </si>
+  <si>
     <t>Harrison Fong</t>
   </si>
   <si>
@@ -679,6 +679,21 @@
   </si>
   <si>
     <t>2018-2019</t>
+  </si>
+  <si>
+    <t>Jonathan Moon</t>
+  </si>
+  <si>
+    <t>Spencer Jamison</t>
+  </si>
+  <si>
+    <t>Bill Wallace</t>
+  </si>
+  <si>
+    <t>Frank Wallace</t>
+  </si>
+  <si>
+    <t>Alex Lagemann</t>
   </si>
   <si>
     <t>Alvin Hsia</t>
@@ -768,16 +783,40 @@
     <t>Sophia Ajanee</t>
   </si>
   <si>
+    <t>Kimberly Chen</t>
+  </si>
+  <si>
+    <t>Janini Velchamy</t>
+  </si>
+  <si>
+    <t>Chloe Fung</t>
+  </si>
+  <si>
+    <t>Julia Vita</t>
+  </si>
+  <si>
+    <t>Maxine Parr</t>
+  </si>
+  <si>
+    <t>Katie Holmes</t>
+  </si>
+  <si>
+    <t>Athena Mahajani</t>
+  </si>
+  <si>
+    <t>Julia Gonzalez</t>
+  </si>
+  <si>
+    <t>Allison Hartley</t>
+  </si>
+  <si>
+    <t>image url</t>
+  </si>
+  <si>
     <t>Chance Cox</t>
   </si>
   <si>
     <t>Venkat Munukutla</t>
-  </si>
-  <si>
-    <t>Kimberly Chen</t>
-  </si>
-  <si>
-    <t>Janini Velchamy</t>
   </si>
   <si>
     <t>Jon Young</t>
@@ -789,34 +828,13 @@
     <t>Austin Du</t>
   </si>
   <si>
-    <t>Chloe Fung</t>
-  </si>
-  <si>
-    <t>Julia Vita</t>
-  </si>
-  <si>
-    <t>Maxine Parr</t>
-  </si>
-  <si>
     <t>Albe Trembly</t>
   </si>
   <si>
     <t>Danny Gao</t>
   </si>
   <si>
-    <t>Katie Holmes</t>
-  </si>
-  <si>
-    <t>Athena Mahajani</t>
-  </si>
-  <si>
-    <t>Julia Gonzalez</t>
-  </si>
-  <si>
     <t>Kush Bhattncharje</t>
-  </si>
-  <si>
-    <t>Allison Hartley</t>
   </si>
   <si>
     <t>Matt Hana</t>
@@ -865,7 +883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -875,6 +893,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -909,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -925,46 +947,49 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1023,8 +1048,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="32.14"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
+    <col customWidth="1" min="2" max="2" width="17.86"/>
+    <col customWidth="1" min="3" max="3" width="13.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1052,230 +1077,240 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>44</v>
+      <c r="A3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
+      <c r="A4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>55</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>58</v>
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
+      <c r="A7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>69</v>
+      <c r="A8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>77</v>
+      <c r="A9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>81</v>
+      <c r="A10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>89</v>
+      <c r="A11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>99</v>
+      <c r="A12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="D12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>109</v>
+      <c r="D13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>110</v>
+      <c r="D14" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>110</v>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1283,17 +1318,17 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>121</v>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1301,17 +1336,17 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>123</v>
+      <c r="D17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1319,17 +1354,17 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>124</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>123</v>
+      <c r="D18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1337,16 +1372,16 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F19" s="3"/>
@@ -1354,48 +1389,48 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="9" t="s">
-        <v>124</v>
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>130</v>
+      <c r="A21" s="15"/>
+      <c r="B21" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>135</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1403,16 +1438,16 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="3"/>
@@ -1420,31 +1455,31 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="15"/>
-      <c r="B24" s="9" t="s">
-        <v>135</v>
+      <c r="A24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>139</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1453,15 +1488,15 @@
       <c r="A26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>139</v>
+      <c r="B26" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>141</v>
+      <c r="D26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1471,15 +1506,15 @@
       <c r="A27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>143</v>
+      <c r="B27" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1489,26 +1524,32 @@
       <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>143</v>
+      <c r="B28" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>145</v>
+      <c r="E28" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="3"/>
@@ -1516,18 +1557,12 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="A30" s="15"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1537,14 +1572,14 @@
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>150</v>
+      <c r="B31" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F31" s="3"/>
@@ -1555,15 +1590,15 @@
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1573,15 +1608,15 @@
       <c r="A33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>158</v>
+      <c r="B33" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>160</v>
+      <c r="E33" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1591,15 +1626,15 @@
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>158</v>
+      <c r="B34" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>160</v>
+      <c r="E34" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1609,15 +1644,15 @@
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>165</v>
+      <c r="E35" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1627,385 +1662,407 @@
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>163</v>
+      <c r="B36" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>163</v>
+      <c r="E37" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="9"/>
+      <c r="B39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>177</v>
-      </c>
+      <c r="A40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="9" t="s">
+      <c r="A41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>175</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>184</v>
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="E45" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="17" t="s">
+      <c r="D48" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="9" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C51" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D51" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F51" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="D53" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="E53" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="9" t="s">
-        <v>203</v>
+      <c r="F53" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>205</v>
+      <c r="A54" s="14"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="11"/>
-      <c r="F55" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="A55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
-      <c r="F56" s="14" t="s">
-        <v>209</v>
+      <c r="A56" s="14"/>
+      <c r="F56" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="I57" s="14" t="s">
-        <v>214</v>
+      <c r="A57" s="14"/>
+      <c r="F57" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="I58" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="11"/>
+    <row r="61">
+      <c r="A61" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+  </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2027,382 +2084,402 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
+      <c r="A4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
+      <c r="A5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
+      <c r="A6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
+      <c r="A8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
+      <c r="A9" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
+      <c r="A10" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
+      <c r="A11" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="E26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="C28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="F29" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7"/>
+      <c r="F30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="E31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="G32" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="14" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="D34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6"/>
-      <c r="F29" s="14" t="s">
+      <c r="F34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="C35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
-        <v>87</v>
+      <c r="E35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
-        <v>88</v>
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>111</v>
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11"/>
-      <c r="E40" s="14" t="s">
-        <v>118</v>
+      <c r="A40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15"/>
-      <c r="E41" s="14" t="s">
-        <v>115</v>
+      <c r="A41" s="14"/>
+      <c r="E41" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="15"/>
+      <c r="E42" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="15"/>
@@ -5310,6 +5387,9 @@
     </row>
     <row r="1011">
       <c r="A1011" s="15"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5333,17 +5413,17 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
+      <c r="E1" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5371,14 +5451,20 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -5404,11 +5490,11 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5438,11 +5524,11 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
+      <c r="A4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5472,9 +5558,11 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
+      <c r="A5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -5504,11 +5592,9 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.0</v>
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -5538,11 +5624,11 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
+      <c r="A7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.0</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5572,11 +5658,11 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
+      <c r="A8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5606,11 +5692,11 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>73</v>
+      <c r="A9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5640,11 +5726,11 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>106</v>
+      <c r="A10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5674,11 +5760,11 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>112</v>
+      <c r="A11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5708,11 +5794,11 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>77</v>
+      <c r="A12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5742,11 +5828,11 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>81</v>
+      <c r="A13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5776,11 +5862,11 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>89</v>
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5810,11 +5896,11 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>99</v>
+      <c r="A15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5844,11 +5930,11 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>109</v>
+      <c r="A16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5878,11 +5964,11 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
+      <c r="A17" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5912,11 +5998,11 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>129</v>
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5946,11 +6032,11 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>133</v>
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5980,11 +6066,11 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>124</v>
+      <c r="A20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6014,11 +6100,11 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0.0</v>
+      <c r="A21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6048,11 +6134,11 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>146</v>
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.0</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6082,11 +6168,11 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>149</v>
+      <c r="A23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6116,11 +6202,11 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>155</v>
+      <c r="A24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6150,9 +6236,11 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
-        <v>135</v>
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6182,11 +6270,9 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>162</v>
+      <c r="A26" s="14"/>
+      <c r="B26" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6216,11 +6302,11 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>168</v>
+      <c r="A27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6250,11 +6336,11 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>169</v>
+      <c r="B28" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6284,9 +6370,11 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9" t="s">
-        <v>143</v>
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6316,11 +6404,9 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>178</v>
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6350,9 +6436,11 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>181</v>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6382,11 +6470,9 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>151</v>
+      <c r="A32" s="14"/>
+      <c r="B32" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6416,10 +6502,10 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="3"/>
@@ -6450,9 +6536,11 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9" t="s">
-        <v>150</v>
+      <c r="A34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6482,11 +6570,9 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>190</v>
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6516,11 +6602,11 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>158</v>
+      <c r="B36" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6550,11 +6636,11 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>161</v>
+      <c r="B37" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6584,11 +6670,11 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>164</v>
+      <c r="B38" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6618,9 +6704,11 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9" t="s">
-        <v>163</v>
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6650,11 +6738,9 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>199</v>
+      <c r="A40" s="14"/>
+      <c r="B40" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -6684,11 +6770,11 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>171</v>
+      <c r="B41" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6718,11 +6804,11 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>221</v>
+      <c r="B42" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6752,11 +6838,11 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>222</v>
+      <c r="B43" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6786,11 +6872,11 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>222</v>
+      <c r="B44" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6820,22 +6906,16 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="9"/>
+      <c r="A45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -6860,16 +6940,24 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="A46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6892,24 +6980,16 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6932,16 +7012,24 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="9" t="s">
-        <v>227</v>
+      <c r="A48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6964,12 +7052,12 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="11"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="9" t="s">
-        <v>226</v>
+      <c r="E49" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -6996,20 +7084,12 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>198</v>
+      <c r="A50" s="14"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -7036,14 +7116,22 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="9"/>
+      <c r="A51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -7068,22 +7156,14 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="9"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -7108,14 +7188,22 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="A53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -7142,10 +7230,10 @@
     <row r="54">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>231</v>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -7172,24 +7260,16 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>234</v>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -7212,16 +7292,24 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="9"/>
+      <c r="A56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -7244,22 +7332,14 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="9"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="11"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -7284,14 +7364,22 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="9"/>
+      <c r="A58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="11"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -7316,22 +7404,14 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="3"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="11"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -7356,12 +7436,20 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="A60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>217</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -7388,12 +7476,12 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>238</v>
+      <c r="A61" s="14"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -7420,37 +7508,72 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="A62" s="14"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11"/>
+      <c r="A65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7473,20 +7596,20 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -7508,19 +7631,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7545,18 +7668,20 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7580,20 +7705,18 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7616,13 +7739,21 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7645,21 +7776,13 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -7682,15 +7805,23 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9" t="s">
-        <v>246</v>
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7711,21 +7842,15 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7746,15 +7871,21 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="9"/>
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7775,21 +7906,15 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7810,15 +7935,21 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -7839,19 +7970,13 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -7875,30 +8000,65 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7922,19 +8082,19 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="20"/>
+      <c r="E1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="21"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -7958,19 +8118,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>191</v>
+        <v>264</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7995,12 +8155,20 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9" t="s">
-        <v>225</v>
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -8025,20 +8193,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>254</v>
+      <c r="A4" s="14"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -8063,11 +8223,21 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -8091,9 +8261,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8122,20 +8290,12 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>260</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8159,12 +8319,20 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9" t="s">
-        <v>233</v>
+      <c r="A8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8189,20 +8357,12 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>268</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8227,13 +8387,21 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -8257,21 +8425,13 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8295,12 +8455,20 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9" t="s">
-        <v>272</v>
+      <c r="A12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -8325,13 +8493,13 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8356,7 +8524,7 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8386,7 +8554,7 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8416,7 +8584,7 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8445,10 +8613,13 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
+      <c r="A17" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -8476,7 +8647,6 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -36051,6 +36221,34 @@
       <c r="Y1002" s="3"/>
       <c r="Z1002" s="3"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="3"/>
+      <c r="B1003" s="3"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="3"/>
+      <c r="G1003" s="3"/>
+      <c r="H1003" s="3"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="3"/>
+      <c r="M1003" s="3"/>
+      <c r="N1003" s="3"/>
+      <c r="O1003" s="3"/>
+      <c r="P1003" s="3"/>
+      <c r="Q1003" s="3"/>
+      <c r="R1003" s="3"/>
+      <c r="S1003" s="3"/>
+      <c r="T1003" s="3"/>
+      <c r="U1003" s="3"/>
+      <c r="V1003" s="3"/>
+      <c r="W1003" s="3"/>
+      <c r="X1003" s="3"/>
+      <c r="Y1003" s="3"/>
+      <c r="Z1003" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -36070,99 +36268,109 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -36173,78 +36381,78 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>275</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9" t="s">
-        <v>277</v>
+      <c r="A9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="9" t="s">
-        <v>105</v>
+      <c r="F10" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -36255,7 +36463,7 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -36266,7 +36474,7 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -36277,7 +36485,7 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -36286,6 +36494,17 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
